--- a/team_specific_matrix/Seton Hall_B.xlsx
+++ b/team_specific_matrix/Seton Hall_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1818181818181818</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="C2">
-        <v>0.5738636363636364</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1193181818181818</v>
+        <v>0.1068376068376068</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.125</v>
+        <v>0.1239316239316239</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009523809523809525</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="C3">
-        <v>0.04761904761904762</v>
+        <v>0.03496503496503497</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8</v>
+        <v>0.7832167832167832</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1428571428571428</v>
+        <v>0.1608391608391608</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05</v>
+        <v>0.0625</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05454545454545454</v>
+        <v>0.05069124423963134</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006060606060606061</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="E6">
-        <v>0.006060606060606061</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="F6">
-        <v>0.03636363636363636</v>
+        <v>0.03686635944700461</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2787878787878788</v>
+        <v>0.2672811059907834</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.006060606060606061</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1515151515151515</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="R6">
-        <v>0.06666666666666667</v>
+        <v>0.07373271889400922</v>
       </c>
       <c r="S6">
-        <v>0.3939393939393939</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06617647058823529</v>
+        <v>0.06</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02205882352941177</v>
+        <v>0.015</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07352941176470588</v>
+        <v>0.075</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1470588235294118</v>
+        <v>0.145</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02205882352941177</v>
+        <v>0.02</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1617647058823529</v>
+        <v>0.155</v>
       </c>
       <c r="R7">
-        <v>0.1176470588235294</v>
+        <v>0.115</v>
       </c>
       <c r="S7">
-        <v>0.3897058823529412</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08498583569405099</v>
+        <v>0.08713692946058091</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0169971671388102</v>
+        <v>0.01867219917012448</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0679886685552408</v>
+        <v>0.07053941908713693</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1189801699716714</v>
+        <v>0.1099585062240664</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0141643059490085</v>
+        <v>0.01244813278008299</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1756373937677054</v>
+        <v>0.1639004149377593</v>
       </c>
       <c r="R8">
-        <v>0.1019830028328612</v>
+        <v>0.0954356846473029</v>
       </c>
       <c r="S8">
-        <v>0.4192634560906516</v>
+        <v>0.441908713692946</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09433962264150944</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03773584905660377</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1226415094339623</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1509433962264151</v>
+        <v>0.1357142857142857</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.009433962264150943</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1132075471698113</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="R9">
-        <v>0.08490566037735849</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="S9">
-        <v>0.3867924528301887</v>
+        <v>0.4071428571428571</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09857482185273159</v>
+        <v>0.0947002606429192</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01068883610451306</v>
+        <v>0.01476976542137272</v>
       </c>
       <c r="E10">
-        <v>0.002375296912114014</v>
+        <v>0.001737619461337967</v>
       </c>
       <c r="F10">
-        <v>0.07125890736342043</v>
+        <v>0.0686359687228497</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1247030878859857</v>
+        <v>0.1259774109470026</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01068883610451306</v>
+        <v>0.009556907037358819</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1983372921615202</v>
+        <v>0.1980886185925282</v>
       </c>
       <c r="R10">
-        <v>0.09738717339667459</v>
+        <v>0.0947002606429192</v>
       </c>
       <c r="S10">
-        <v>0.3859857482185273</v>
+        <v>0.3918331885317116</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.119047619047619</v>
+        <v>0.1183206106870229</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07142857142857142</v>
+        <v>0.09923664122137404</v>
       </c>
       <c r="K11">
-        <v>0.1428571428571428</v>
+        <v>0.1603053435114504</v>
       </c>
       <c r="L11">
-        <v>0.6607142857142857</v>
+        <v>0.6183206106870229</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.005952380952380952</v>
+        <v>0.003816793893129771</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8305084745762712</v>
+        <v>0.8273809523809523</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1355932203389831</v>
+        <v>0.1488095238095238</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.03389830508474576</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7058823529411765</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2647058823529412</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02941176470588235</v>
+        <v>0.0196078431372549</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02173913043478261</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1521739130434783</v>
+        <v>0.1709844559585492</v>
       </c>
       <c r="I15">
-        <v>0.07246376811594203</v>
+        <v>0.06217616580310881</v>
       </c>
       <c r="J15">
-        <v>0.3768115942028986</v>
+        <v>0.3575129533678756</v>
       </c>
       <c r="K15">
-        <v>0.04347826086956522</v>
+        <v>0.06217616580310881</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01449275362318841</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06521739130434782</v>
+        <v>0.05181347150259067</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2536231884057971</v>
+        <v>0.2590673575129533</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,28 +1342,28 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2105263157894737</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="I16">
-        <v>0.05263157894736842</v>
+        <v>0.0457516339869281</v>
       </c>
       <c r="J16">
-        <v>0.412280701754386</v>
+        <v>0.3986928104575164</v>
       </c>
       <c r="K16">
-        <v>0.08771929824561403</v>
+        <v>0.0915032679738562</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03508771929824561</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07017543859649122</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.131578947368421</v>
+        <v>0.1503267973856209</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0313588850174216</v>
+        <v>0.02624671916010499</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1846689895470383</v>
+        <v>0.2073490813648294</v>
       </c>
       <c r="I17">
-        <v>0.05226480836236934</v>
+        <v>0.04986876640419947</v>
       </c>
       <c r="J17">
-        <v>0.3763066202090593</v>
+        <v>0.3700787401574803</v>
       </c>
       <c r="K17">
-        <v>0.08710801393728224</v>
+        <v>0.08923884514435695</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01045296167247387</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05923344947735192</v>
+        <v>0.05249343832020997</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1986062717770035</v>
+        <v>0.1968503937007874</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01290322580645161</v>
+        <v>0.01932367149758454</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2064516129032258</v>
+        <v>0.1835748792270532</v>
       </c>
       <c r="I18">
-        <v>0.09677419354838709</v>
+        <v>0.0966183574879227</v>
       </c>
       <c r="J18">
-        <v>0.3806451612903226</v>
+        <v>0.3961352657004831</v>
       </c>
       <c r="K18">
-        <v>0.1096774193548387</v>
+        <v>0.0966183574879227</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01290322580645161</v>
+        <v>0.01932367149758454</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03870967741935484</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1419354838709677</v>
+        <v>0.1449275362318841</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01975850713501646</v>
+        <v>0.01713395638629283</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2469813391877058</v>
+        <v>0.2375389408099688</v>
       </c>
       <c r="I19">
-        <v>0.06366630076838639</v>
+        <v>0.0630841121495327</v>
       </c>
       <c r="J19">
-        <v>0.3512623490669594</v>
+        <v>0.3434579439252337</v>
       </c>
       <c r="K19">
-        <v>0.09330406147091108</v>
+        <v>0.1082554517133956</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02634467618002195</v>
+        <v>0.03037383177570093</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06915477497255763</v>
+        <v>0.07320872274143302</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1295279912184413</v>
+        <v>0.1269470404984424</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Seton Hall_B.xlsx
+++ b/team_specific_matrix/Seton Hall_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1794871794871795</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="C2">
-        <v>0.5897435897435898</v>
+        <v>0.592741935483871</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1068376068376068</v>
+        <v>0.1048387096774194</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1239316239316239</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006993006993006993</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="C3">
-        <v>0.03496503496503497</v>
+        <v>0.03267973856209151</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01398601398601399</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7832167832167832</v>
+        <v>0.7908496732026143</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1608391608391608</v>
+        <v>0.1568627450980392</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05069124423963134</v>
+        <v>0.05531914893617021</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004608294930875576</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="E6">
-        <v>0.004608294930875576</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="F6">
-        <v>0.03686635944700461</v>
+        <v>0.03404255319148936</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2672811059907834</v>
+        <v>0.2638297872340425</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.004608294930875576</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1290322580645161</v>
+        <v>0.1404255319148936</v>
       </c>
       <c r="R6">
-        <v>0.07373271889400922</v>
+        <v>0.07234042553191489</v>
       </c>
       <c r="S6">
-        <v>0.4285714285714285</v>
+        <v>0.4212765957446808</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06</v>
+        <v>0.06511627906976744</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.015</v>
+        <v>0.01395348837209302</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.075</v>
+        <v>0.07441860465116279</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.145</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02</v>
+        <v>0.0186046511627907</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.155</v>
+        <v>0.1534883720930233</v>
       </c>
       <c r="R7">
-        <v>0.115</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="S7">
-        <v>0.415</v>
+        <v>0.4186046511627907</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08713692946058091</v>
+        <v>0.0842911877394636</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01867219917012448</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07053941908713693</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1099585062240664</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01244813278008299</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1639004149377593</v>
+        <v>0.1628352490421456</v>
       </c>
       <c r="R8">
-        <v>0.0954356846473029</v>
+        <v>0.1053639846743295</v>
       </c>
       <c r="S8">
-        <v>0.441908713692946</v>
+        <v>0.446360153256705</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1071428571428571</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03571428571428571</v>
+        <v>0.03401360544217687</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1071428571428571</v>
+        <v>0.1156462585034014</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1357142857142857</v>
+        <v>0.1360544217687075</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01428571428571429</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1071428571428571</v>
+        <v>0.108843537414966</v>
       </c>
       <c r="R9">
-        <v>0.08571428571428572</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="S9">
-        <v>0.4071428571428571</v>
+        <v>0.3945578231292517</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0947002606429192</v>
+        <v>0.09362389023405973</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01476976542137272</v>
+        <v>0.01372074253430186</v>
       </c>
       <c r="E10">
-        <v>0.001737619461337967</v>
+        <v>0.001614205004035512</v>
       </c>
       <c r="F10">
-        <v>0.0686359687228497</v>
+        <v>0.06941081517352704</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1259774109470026</v>
+        <v>0.12590799031477</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009556907037358819</v>
+        <v>0.01049233252623083</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1980886185925282</v>
+        <v>0.1945117029862793</v>
       </c>
       <c r="R10">
-        <v>0.0947002606429192</v>
+        <v>0.09685230024213075</v>
       </c>
       <c r="S10">
-        <v>0.3918331885317116</v>
+        <v>0.3938660209846651</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1183206106870229</v>
+        <v>0.1209964412811388</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09923664122137404</v>
+        <v>0.099644128113879</v>
       </c>
       <c r="K11">
-        <v>0.1603053435114504</v>
+        <v>0.1672597864768683</v>
       </c>
       <c r="L11">
-        <v>0.6183206106870229</v>
+        <v>0.608540925266904</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.003816793893129771</v>
+        <v>0.003558718861209964</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8273809523809523</v>
+        <v>0.8305084745762712</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1488095238095238</v>
+        <v>0.1468926553672316</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.02380952380952381</v>
+        <v>0.02259887005649718</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7450980392156863</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2352941176470588</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0196078431372549</v>
+        <v>0.01724137931034483</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02590673575129534</v>
+        <v>0.02392344497607655</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1709844559585492</v>
+        <v>0.1674641148325359</v>
       </c>
       <c r="I15">
-        <v>0.06217616580310881</v>
+        <v>0.07655502392344497</v>
       </c>
       <c r="J15">
-        <v>0.3575129533678756</v>
+        <v>0.354066985645933</v>
       </c>
       <c r="K15">
-        <v>0.06217616580310881</v>
+        <v>0.06220095693779904</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01036269430051814</v>
+        <v>0.01435406698564593</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05181347150259067</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2590673575129533</v>
+        <v>0.2488038277511962</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,28 +1342,28 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.196078431372549</v>
+        <v>0.2024539877300613</v>
       </c>
       <c r="I16">
-        <v>0.0457516339869281</v>
+        <v>0.04294478527607362</v>
       </c>
       <c r="J16">
-        <v>0.3986928104575164</v>
+        <v>0.392638036809816</v>
       </c>
       <c r="K16">
-        <v>0.0915032679738562</v>
+        <v>0.09202453987730061</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0392156862745098</v>
+        <v>0.049079754601227</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07843137254901961</v>
+        <v>0.0736196319018405</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1503267973856209</v>
+        <v>0.147239263803681</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02624671916010499</v>
+        <v>0.02450980392156863</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2073490813648294</v>
+        <v>0.2156862745098039</v>
       </c>
       <c r="I17">
-        <v>0.04986876640419947</v>
+        <v>0.04656862745098039</v>
       </c>
       <c r="J17">
-        <v>0.3700787401574803</v>
+        <v>0.375</v>
       </c>
       <c r="K17">
-        <v>0.08923884514435695</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.007874015748031496</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05249343832020997</v>
+        <v>0.05392156862745098</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1968503937007874</v>
+        <v>0.1911764705882353</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01932367149758454</v>
+        <v>0.02155172413793104</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1835748792270532</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="I18">
-        <v>0.0966183574879227</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="J18">
-        <v>0.3961352657004831</v>
+        <v>0.4267241379310345</v>
       </c>
       <c r="K18">
-        <v>0.0966183574879227</v>
+        <v>0.09051724137931035</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01932367149758454</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04347826086956522</v>
+        <v>0.04741379310344827</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1449275362318841</v>
+        <v>0.1379310344827586</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01713395638629283</v>
+        <v>0.01742919389978214</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2375389408099688</v>
+        <v>0.2389251997095134</v>
       </c>
       <c r="I19">
-        <v>0.0630841121495327</v>
+        <v>0.06100217864923747</v>
       </c>
       <c r="J19">
-        <v>0.3434579439252337</v>
+        <v>0.3420479302832244</v>
       </c>
       <c r="K19">
-        <v>0.1082554517133956</v>
+        <v>0.1089324618736384</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03037383177570093</v>
+        <v>0.03050108932461874</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07320872274143302</v>
+        <v>0.074800290486565</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1269470404984424</v>
+        <v>0.1263616557734205</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Seton Hall_B.xlsx
+++ b/team_specific_matrix/Seton Hall_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1774193548387097</v>
+        <v>0.1875</v>
       </c>
       <c r="C2">
-        <v>0.592741935483871</v>
+        <v>0.5772058823529411</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1048387096774194</v>
+        <v>0.1139705882352941</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.125</v>
+        <v>0.1213235294117647</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006535947712418301</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="C3">
-        <v>0.03267973856209151</v>
+        <v>0.03658536585365853</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0130718954248366</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7908496732026143</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1568627450980392</v>
+        <v>0.1524390243902439</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0625</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.75</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1875</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05531914893617021</v>
+        <v>0.056</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00425531914893617</v>
+        <v>0.004</v>
       </c>
       <c r="E6">
-        <v>0.00425531914893617</v>
+        <v>0.004</v>
       </c>
       <c r="F6">
-        <v>0.03404255319148936</v>
+        <v>0.04</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2638297872340425</v>
+        <v>0.256</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.00425531914893617</v>
+        <v>0.004</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1404255319148936</v>
+        <v>0.14</v>
       </c>
       <c r="R6">
-        <v>0.07234042553191489</v>
+        <v>0.08</v>
       </c>
       <c r="S6">
-        <v>0.4212765957446808</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06511627906976744</v>
+        <v>0.07327586206896551</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01395348837209302</v>
+        <v>0.01293103448275862</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07441860465116279</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1395348837209302</v>
+        <v>0.146551724137931</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0186046511627907</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1534883720930233</v>
+        <v>0.1508620689655172</v>
       </c>
       <c r="R7">
-        <v>0.1162790697674419</v>
+        <v>0.1120689655172414</v>
       </c>
       <c r="S7">
-        <v>0.4186046511627907</v>
+        <v>0.418103448275862</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0842911877394636</v>
+        <v>0.08424908424908426</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01724137931034483</v>
+        <v>0.01831501831501832</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06896551724137931</v>
+        <v>0.06776556776556776</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.103448275862069</v>
+        <v>0.1043956043956044</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01149425287356322</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1628352490421456</v>
+        <v>0.1648351648351648</v>
       </c>
       <c r="R8">
-        <v>0.1053639846743295</v>
+        <v>0.1062271062271062</v>
       </c>
       <c r="S8">
-        <v>0.446360153256705</v>
+        <v>0.4432234432234432</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1020408163265306</v>
+        <v>0.09937888198757763</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03401360544217687</v>
+        <v>0.03105590062111801</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1156462585034014</v>
+        <v>0.1180124223602484</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1360544217687075</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01360544217687075</v>
+        <v>0.0124223602484472</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.108843537414966</v>
+        <v>0.1180124223602484</v>
       </c>
       <c r="R9">
-        <v>0.09523809523809523</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="S9">
-        <v>0.3945578231292517</v>
+        <v>0.4037267080745341</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09362389023405973</v>
+        <v>0.09584905660377359</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01372074253430186</v>
+        <v>0.01283018867924528</v>
       </c>
       <c r="E10">
-        <v>0.001614205004035512</v>
+        <v>0.002264150943396227</v>
       </c>
       <c r="F10">
-        <v>0.06941081517352704</v>
+        <v>0.06867924528301887</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.12590799031477</v>
+        <v>0.1267924528301887</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01049233252623083</v>
+        <v>0.009811320754716982</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1945117029862793</v>
+        <v>0.1992452830188679</v>
       </c>
       <c r="R10">
-        <v>0.09685230024213075</v>
+        <v>0.09584905660377359</v>
       </c>
       <c r="S10">
-        <v>0.3938660209846651</v>
+        <v>0.3886792452830189</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1209964412811388</v>
+        <v>0.1151315789473684</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.099644128113879</v>
+        <v>0.1019736842105263</v>
       </c>
       <c r="K11">
-        <v>0.1672597864768683</v>
+        <v>0.1644736842105263</v>
       </c>
       <c r="L11">
-        <v>0.608540925266904</v>
+        <v>0.6151315789473685</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.003558718861209964</v>
+        <v>0.003289473684210526</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8305084745762712</v>
+        <v>0.8341968911917098</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1468926553672316</v>
+        <v>0.1450777202072539</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.02259887005649718</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7413793103448276</v>
+        <v>0.75</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2413793103448276</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.01724137931034483</v>
+        <v>0.01666666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02392344497607655</v>
+        <v>0.02232142857142857</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1674641148325359</v>
+        <v>0.1651785714285714</v>
       </c>
       <c r="I15">
-        <v>0.07655502392344497</v>
+        <v>0.07589285714285714</v>
       </c>
       <c r="J15">
-        <v>0.354066985645933</v>
+        <v>0.3705357142857143</v>
       </c>
       <c r="K15">
-        <v>0.06220095693779904</v>
+        <v>0.0625</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01435406698564593</v>
+        <v>0.01339285714285714</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05263157894736842</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2488038277511962</v>
+        <v>0.2366071428571428</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,28 +1342,28 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2024539877300613</v>
+        <v>0.1955307262569832</v>
       </c>
       <c r="I16">
-        <v>0.04294478527607362</v>
+        <v>0.05027932960893855</v>
       </c>
       <c r="J16">
-        <v>0.392638036809816</v>
+        <v>0.4134078212290503</v>
       </c>
       <c r="K16">
-        <v>0.09202453987730061</v>
+        <v>0.0893854748603352</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.049079754601227</v>
+        <v>0.0446927374301676</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0736196319018405</v>
+        <v>0.0670391061452514</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.147239263803681</v>
+        <v>0.1396648044692737</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02450980392156863</v>
+        <v>0.0248868778280543</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2156862745098039</v>
+        <v>0.2104072398190045</v>
       </c>
       <c r="I17">
-        <v>0.04656862745098039</v>
+        <v>0.04298642533936652</v>
       </c>
       <c r="J17">
-        <v>0.375</v>
+        <v>0.3755656108597285</v>
       </c>
       <c r="K17">
-        <v>0.08333333333333333</v>
+        <v>0.083710407239819</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.009803921568627451</v>
+        <v>0.01357466063348416</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05392156862745098</v>
+        <v>0.05429864253393665</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1911764705882353</v>
+        <v>0.1945701357466063</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02155172413793104</v>
+        <v>0.02032520325203252</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1724137931034483</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="I18">
-        <v>0.08620689655172414</v>
+        <v>0.09349593495934959</v>
       </c>
       <c r="J18">
-        <v>0.4267241379310345</v>
+        <v>0.4186991869918699</v>
       </c>
       <c r="K18">
-        <v>0.09051724137931035</v>
+        <v>0.08943089430894309</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01724137931034483</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04741379310344827</v>
+        <v>0.05691056910569105</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1379310344827586</v>
+        <v>0.1341463414634146</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01742919389978214</v>
+        <v>0.01715854495538778</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2389251997095134</v>
+        <v>0.2347288949897049</v>
       </c>
       <c r="I19">
-        <v>0.06100217864923747</v>
+        <v>0.06314344543582705</v>
       </c>
       <c r="J19">
-        <v>0.3420479302832244</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="K19">
-        <v>0.1089324618736384</v>
+        <v>0.1125600549073439</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03050108932461874</v>
+        <v>0.02882635552505148</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.074800290486565</v>
+        <v>0.07618393960192175</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1263616557734205</v>
+        <v>0.1269732326698696</v>
       </c>
     </row>
   </sheetData>
